--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\SIEMENS\DesigoCCSpecifier_v5\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1343B-15B5-476B-BD00-147F62B401F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4F009-1911-4BFF-9336-09191DB7F5CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="997">
   <si>
     <t>Просмотр графики</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Поддержка IEC 61850</t>
   </si>
   <si>
-    <t>Подключение до 64 контроллеров Simatic S7</t>
-  </si>
-  <si>
-    <t>Поддержка Simatic S7 plus</t>
-  </si>
-  <si>
     <t>P55802-Y135-A300</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>TOKEN</t>
   </si>
   <si>
-    <t>Общее количество клиентов (любого типа)</t>
-  </si>
-  <si>
     <t>CCA-GW-FSET</t>
   </si>
   <si>
@@ -2181,12 +2172,6 @@
     <t>CMD.04 LMS Micro Dongle</t>
   </si>
   <si>
-    <t>P54511-P101-A1</t>
-  </si>
-  <si>
-    <t>Лицензия интеграции SiPass в DesigoCC</t>
-  </si>
-  <si>
     <t>AAC-16-GMS  Integration</t>
   </si>
   <si>
@@ -3012,9 +2997,6 @@
     <t>Desigo CC v.5.0</t>
   </si>
   <si>
-    <t>Модель данных: 09.05.2021</t>
-  </si>
-  <si>
     <t>Компонент продления подписки</t>
   </si>
   <si>
@@ -3034,6 +3016,18 @@
   </si>
   <si>
     <t>SNMP агент</t>
+  </si>
+  <si>
+    <t>Количество дополнительных клиентов</t>
+  </si>
+  <si>
+    <t>Модель данных: 01.07.2021</t>
+  </si>
+  <si>
+    <t>P54511-P101-A1-L</t>
+  </si>
+  <si>
+    <t>Лицензия на интеграцию SiPass в DesigoCC V2.8+</t>
   </si>
 </sst>
 </file>
@@ -3444,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8D57EA-4FE7-4FCD-BE96-8A7E978C7663}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,12 +3449,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66BEEDC-675C-4F95-91D3-548EBF0F2EEF}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
@@ -3486,1682 +3480,1682 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
-      </c>
-      <c r="B1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B8" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B14" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B16" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B17" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B18" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B19" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B21" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B23" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B25" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B26" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B27" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B28" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B30" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B31" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B32" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B33" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B34" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B35" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B36" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B37" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B38" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B39" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B40" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B41" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B42" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B43" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B44" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B45" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C45">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B46" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B47" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B48" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B49" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B50" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B51" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B52" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C52">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B53" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B54" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B55" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B56" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B57" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B58" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B59" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B60" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B61" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B62" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B63" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B64" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B65" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B66" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B67" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B68" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B69" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B70" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B71" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B72" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B73" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B74" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B75" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B76" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B78" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B79" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B81" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B82" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B83" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B84" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B85" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B86" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B87" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C87">
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C88">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C89">
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B90" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C90">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B91" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C91">
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B92" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C92">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B93" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C93">
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B94" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C94">
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C95">
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C96">
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B97" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C97">
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B98" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C98">
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B99" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C99">
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C100">
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B101" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C101">
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B102" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C102">
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B103" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C103">
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B104" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C104">
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B105" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C105">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B106" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C106">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B107" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C107">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B108" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C108">
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B109" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B110" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B111" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B112" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B113" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B114" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B116" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B117" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B118" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B119" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B120" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5188,198 +5182,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
-      </c>
-      <c r="B1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B3" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B4" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B5" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B7" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B8" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B9" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C9">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B10" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B11" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B12" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C12">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B13" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C13">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B14" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5387,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,226 +5399,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
-      </c>
-      <c r="B1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C13">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C15">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B16" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5650,338 +5644,338 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
-      </c>
-      <c r="B1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B17" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5994,7 +5988,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,186 +6001,186 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>993</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B16" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C16" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B17" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C17" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -6196,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA2892-900A-48F6-AB5F-A08D9103BEB3}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,13 +6205,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6247,18 +6241,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B8" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C8" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6273,7 +6267,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,7 +6303,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6319,23 +6313,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B21" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C21" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6343,31 +6337,9 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6396,172 +6368,172 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6548,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,7 +6591,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>size!A2</f>
-        <v>Общее количество клиентов (любого типа)</v>
+        <v>Количество дополнительных клиентов</v>
       </c>
       <c r="B2" s="2">
         <v>-1</v>
@@ -6628,31 +6600,31 @@
         <v>-1</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -7204,7 +7176,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -7245,7 +7217,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -7302,7 +7274,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7670,7 +7642,7 @@
         <v>-1</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="9">
         <v>-1</v>
@@ -7688,13 +7660,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
@@ -7777,7 +7749,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
@@ -7847,52 +7819,20 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>options!A23</f>
-        <v>Подключение до 64 контроллеров Simatic S7</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>options!A24</f>
-        <v>Поддержка Simatic S7 plus</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
@@ -7912,7 +7852,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7924,35 +7864,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -7964,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23746BB9-1DD0-4EAB-8A33-BFEF932BE348}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7979,33 +7919,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
       <c r="E2" s="13">
         <v>770</v>
@@ -8013,16 +7953,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
       </c>
       <c r="E3" s="13">
         <v>2947</v>
@@ -8030,16 +7970,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="13">
         <v>60.69</v>
@@ -8047,16 +7987,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="13">
         <v>154</v>
@@ -8064,16 +8004,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
       </c>
       <c r="E6" s="13">
         <v>587.29999999999995</v>
@@ -8081,16 +8021,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
       <c r="E7" s="13">
         <v>12.04</v>
@@ -8098,16 +8038,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
       </c>
       <c r="E8" s="13">
         <v>462</v>
@@ -8115,16 +8055,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
       </c>
       <c r="E9" s="13">
         <v>1764</v>
@@ -8132,16 +8072,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="13">
         <v>36.33</v>
@@ -8149,16 +8089,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" s="13">
         <v>2625</v>
@@ -8166,16 +8106,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
       </c>
       <c r="E12" s="13">
         <v>12250</v>
@@ -8183,16 +8123,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
       </c>
       <c r="E13" s="13">
         <v>525</v>
@@ -8200,16 +8140,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
       </c>
       <c r="E14" s="13">
         <v>1575</v>
@@ -8217,16 +8157,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E15" s="13">
         <v>2969.4</v>
@@ -8234,16 +8174,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
         <v>122</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
       </c>
       <c r="E16" s="13">
         <v>593.88</v>
@@ -8251,16 +8191,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
       </c>
       <c r="E17" s="13">
         <v>1783.6</v>
@@ -8268,16 +8208,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" s="13">
         <v>3596.6</v>
@@ -8285,16 +8225,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
         <v>133</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
       </c>
       <c r="E19" s="13">
         <v>12838</v>
@@ -8302,16 +8242,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
         <v>137</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
       </c>
       <c r="E20" s="13">
         <v>2156</v>
@@ -8319,16 +8259,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" s="13">
         <v>5742.8</v>
@@ -8336,16 +8276,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
         <v>144</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>147</v>
       </c>
       <c r="E22" s="13">
         <v>1146.5999999999999</v>
@@ -8353,16 +8293,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
         <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>151</v>
       </c>
       <c r="E23" s="13">
         <v>3439.8</v>
@@ -8370,16 +8310,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" t="s">
         <v>152</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" t="s">
-        <v>155</v>
       </c>
       <c r="E24" s="13">
         <v>1891.4</v>
@@ -8387,16 +8327,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
         <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
       </c>
       <c r="E25" s="13">
         <v>377.3</v>
@@ -8404,16 +8344,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
         <v>160</v>
-      </c>
-      <c r="B26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" t="s">
-        <v>163</v>
       </c>
       <c r="E26" s="13">
         <v>1146.5999999999999</v>
@@ -8421,16 +8361,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
         <v>164</v>
-      </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
       </c>
       <c r="E27" s="13">
         <v>20188</v>
@@ -8438,16 +8378,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
         <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
       </c>
       <c r="E28" s="13">
         <v>4037.6</v>
@@ -8455,16 +8395,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
         <v>172</v>
-      </c>
-      <c r="B29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>175</v>
       </c>
       <c r="E29" s="13">
         <v>12054</v>
@@ -8472,16 +8412,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30" s="13">
         <v>6154.4</v>
@@ -8489,16 +8429,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
         <v>179</v>
-      </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" t="s">
-        <v>182</v>
       </c>
       <c r="E31" s="13">
         <v>9996</v>
@@ -8506,16 +8446,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
         <v>183</v>
-      </c>
-      <c r="B32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" t="s">
-        <v>186</v>
       </c>
       <c r="E32" s="13">
         <v>781.06</v>
@@ -8523,16 +8463,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
         <v>187</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
       </c>
       <c r="E33" s="13">
         <v>3204.6</v>
@@ -8540,16 +8480,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
         <v>191</v>
-      </c>
-      <c r="B34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" t="s">
-        <v>194</v>
       </c>
       <c r="E34" s="13">
         <v>23128</v>
@@ -8557,16 +8497,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" t="s">
         <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
       </c>
       <c r="E35" s="13">
         <v>155.82</v>
@@ -8574,16 +8514,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
         <v>199</v>
-      </c>
-      <c r="B36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
       </c>
       <c r="E36" s="13">
         <v>639.94000000000005</v>
@@ -8591,16 +8531,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
         <v>203</v>
-      </c>
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
       </c>
       <c r="E37" s="13">
         <v>4635.3999999999996</v>
@@ -8608,16 +8548,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" t="s">
-        <v>210</v>
       </c>
       <c r="E38" s="13">
         <v>468.44</v>
@@ -8625,16 +8565,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
         <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" t="s">
-        <v>214</v>
       </c>
       <c r="E39" s="13">
         <v>1920.8</v>
@@ -8642,16 +8582,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
         <v>215</v>
-      </c>
-      <c r="B40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" t="s">
-        <v>218</v>
       </c>
       <c r="E40" s="13">
         <v>13916</v>
@@ -8665,10 +8605,10 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E41" s="13">
         <v>3596.6</v>
@@ -8676,16 +8616,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
         <v>221</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" t="s">
-        <v>224</v>
       </c>
       <c r="E42" s="13">
         <v>493.11</v>
@@ -8693,31 +8633,31 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E44" s="13">
         <v>2254</v>
@@ -8725,31 +8665,31 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" t="s">
         <v>231</v>
-      </c>
-      <c r="B46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" t="s">
-        <v>234</v>
       </c>
       <c r="E46" s="13">
         <v>1029</v>
@@ -8757,16 +8697,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" t="s">
         <v>235</v>
-      </c>
-      <c r="B47" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" t="s">
-        <v>238</v>
       </c>
       <c r="E47" s="13">
         <v>5938.8</v>
@@ -8774,16 +8714,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
         <v>239</v>
-      </c>
-      <c r="B48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" t="s">
-        <v>242</v>
       </c>
       <c r="E48" s="13">
         <v>204.82</v>
@@ -8791,16 +8731,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
         <v>243</v>
-      </c>
-      <c r="B49" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" t="s">
-        <v>246</v>
       </c>
       <c r="E49" s="13">
         <v>1185.8</v>
@@ -8808,16 +8748,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
         <v>247</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" t="s">
-        <v>250</v>
       </c>
       <c r="E50" s="13">
         <v>615.44000000000005</v>
@@ -8825,16 +8765,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" t="s">
         <v>251</v>
-      </c>
-      <c r="B51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51" t="s">
-        <v>254</v>
       </c>
       <c r="E51" s="13">
         <v>3567.2</v>
@@ -8842,16 +8782,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" t="s">
         <v>255</v>
-      </c>
-      <c r="B52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" t="s">
-        <v>258</v>
       </c>
       <c r="E52" s="13">
         <v>1029</v>
@@ -8859,16 +8799,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" t="s">
         <v>259</v>
-      </c>
-      <c r="B53" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" t="s">
-        <v>262</v>
       </c>
       <c r="E53" s="13">
         <v>19796</v>
@@ -8876,16 +8816,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" t="s">
         <v>263</v>
-      </c>
-      <c r="B54" t="s">
-        <v>264</v>
-      </c>
-      <c r="C54" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" t="s">
-        <v>266</v>
       </c>
       <c r="E54" s="13">
         <v>49490</v>
@@ -8893,16 +8833,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" t="s">
         <v>267</v>
-      </c>
-      <c r="B55" t="s">
-        <v>268</v>
-      </c>
-      <c r="C55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" t="s">
-        <v>270</v>
       </c>
       <c r="E55" s="13">
         <v>29694</v>
@@ -8910,16 +8850,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" t="s">
         <v>271</v>
-      </c>
-      <c r="B56" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" t="s">
-        <v>274</v>
       </c>
       <c r="E56" s="13">
         <v>2969.4</v>
@@ -8927,16 +8867,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" t="s">
         <v>275</v>
-      </c>
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" t="s">
-        <v>277</v>
-      </c>
-      <c r="D57" t="s">
-        <v>278</v>
       </c>
       <c r="E57" s="13">
         <v>14896</v>
@@ -8944,16 +8884,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" t="s">
         <v>279</v>
-      </c>
-      <c r="B58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" t="s">
-        <v>282</v>
       </c>
       <c r="E58" s="13">
         <v>204.82</v>
@@ -8961,16 +8901,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" t="s">
         <v>283</v>
-      </c>
-      <c r="B59" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" t="s">
-        <v>285</v>
-      </c>
-      <c r="D59" t="s">
-        <v>286</v>
       </c>
       <c r="E59" s="13">
         <v>3959.2</v>
@@ -8978,16 +8918,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" t="s">
         <v>287</v>
-      </c>
-      <c r="B60" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" t="s">
-        <v>290</v>
       </c>
       <c r="E60" s="13">
         <v>9898</v>
@@ -8995,16 +8935,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" t="s">
         <v>291</v>
-      </c>
-      <c r="B61" t="s">
-        <v>292</v>
-      </c>
-      <c r="C61" t="s">
-        <v>293</v>
-      </c>
-      <c r="D61" t="s">
-        <v>294</v>
       </c>
       <c r="E61" s="13">
         <v>5938.8</v>
@@ -9012,16 +8952,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" t="s">
         <v>295</v>
-      </c>
-      <c r="B62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" t="s">
-        <v>298</v>
       </c>
       <c r="E62" s="13">
         <v>593.88</v>
@@ -9029,16 +8969,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" t="s">
         <v>299</v>
-      </c>
-      <c r="B63" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" t="s">
-        <v>301</v>
-      </c>
-      <c r="D63" t="s">
-        <v>302</v>
       </c>
       <c r="E63" s="13">
         <v>2969.4</v>
@@ -9046,16 +8986,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
         <v>303</v>
-      </c>
-      <c r="B64" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" t="s">
-        <v>305</v>
-      </c>
-      <c r="D64" t="s">
-        <v>306</v>
       </c>
       <c r="E64" s="13">
         <v>615.44000000000005</v>
@@ -9063,16 +9003,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" t="s">
         <v>307</v>
-      </c>
-      <c r="B65" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" t="s">
-        <v>310</v>
       </c>
       <c r="E65" s="13">
         <v>11858</v>
@@ -9080,16 +9020,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" t="s">
         <v>311</v>
-      </c>
-      <c r="B66" t="s">
-        <v>312</v>
-      </c>
-      <c r="C66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66" t="s">
-        <v>314</v>
       </c>
       <c r="E66" s="13">
         <v>29694</v>
@@ -9097,16 +9037,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" t="s">
         <v>315</v>
-      </c>
-      <c r="B67" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" t="s">
-        <v>318</v>
       </c>
       <c r="E67" s="13">
         <v>17836</v>
@@ -9114,16 +9054,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" t="s">
         <v>319</v>
-      </c>
-      <c r="B68" t="s">
-        <v>320</v>
-      </c>
-      <c r="C68" t="s">
-        <v>321</v>
-      </c>
-      <c r="D68" t="s">
-        <v>322</v>
       </c>
       <c r="E68" s="13">
         <v>1783.6</v>
@@ -9131,16 +9071,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" t="s">
         <v>323</v>
-      </c>
-      <c r="B69" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" t="s">
-        <v>325</v>
-      </c>
-      <c r="D69" t="s">
-        <v>326</v>
       </c>
       <c r="E69" s="13">
         <v>8908.2000000000007</v>
@@ -9148,16 +9088,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" t="s">
         <v>327</v>
-      </c>
-      <c r="B70" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" t="s">
-        <v>330</v>
       </c>
       <c r="E70" s="13">
         <v>3077.2</v>
@@ -9165,16 +9105,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" t="s">
         <v>331</v>
-      </c>
-      <c r="B71" t="s">
-        <v>332</v>
-      </c>
-      <c r="C71" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" t="s">
-        <v>334</v>
       </c>
       <c r="E71" s="13">
         <v>615.44000000000005</v>
@@ -9182,16 +9122,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" t="s">
         <v>335</v>
-      </c>
-      <c r="B72" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" t="s">
-        <v>338</v>
       </c>
       <c r="E72" s="13">
         <v>1852.2</v>
@@ -9199,16 +9139,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" t="s">
         <v>339</v>
-      </c>
-      <c r="B73" t="s">
-        <v>340</v>
-      </c>
-      <c r="C73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" t="s">
-        <v>342</v>
       </c>
       <c r="E73" s="13">
         <v>751.66</v>
@@ -9216,16 +9156,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" t="s">
         <v>343</v>
-      </c>
-      <c r="B74" t="s">
-        <v>344</v>
-      </c>
-      <c r="C74" t="s">
-        <v>345</v>
-      </c>
-      <c r="D74" t="s">
-        <v>346</v>
       </c>
       <c r="E74" s="13">
         <v>41062</v>
@@ -9233,16 +9173,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>344</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" t="s">
         <v>347</v>
-      </c>
-      <c r="B75" t="s">
-        <v>348</v>
-      </c>
-      <c r="C75" t="s">
-        <v>349</v>
-      </c>
-      <c r="D75" t="s">
-        <v>350</v>
       </c>
       <c r="E75" s="13">
         <v>153860</v>
@@ -9250,16 +9190,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>348</v>
+      </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" t="s">
         <v>351</v>
-      </c>
-      <c r="B76" t="s">
-        <v>352</v>
-      </c>
-      <c r="C76" t="s">
-        <v>353</v>
-      </c>
-      <c r="D76" t="s">
-        <v>354</v>
       </c>
       <c r="E76" s="13">
         <v>76930</v>
@@ -9267,16 +9207,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" t="s">
         <v>355</v>
-      </c>
-      <c r="B77" t="s">
-        <v>356</v>
-      </c>
-      <c r="C77" t="s">
-        <v>357</v>
-      </c>
-      <c r="D77" t="s">
-        <v>358</v>
       </c>
       <c r="E77" s="13">
         <v>3077.2</v>
@@ -9284,16 +9224,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>356</v>
+      </c>
+      <c r="B78" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" t="s">
         <v>359</v>
-      </c>
-      <c r="B78" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D78" t="s">
-        <v>362</v>
       </c>
       <c r="E78" s="13">
         <v>23128</v>
@@ -9301,16 +9241,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>360</v>
+      </c>
+      <c r="B79" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" t="s">
+        <v>362</v>
+      </c>
+      <c r="D79" t="s">
         <v>363</v>
-      </c>
-      <c r="B79" t="s">
-        <v>364</v>
-      </c>
-      <c r="C79" t="s">
-        <v>365</v>
-      </c>
-      <c r="D79" t="s">
-        <v>366</v>
       </c>
       <c r="E79" s="13">
         <v>149.94</v>
@@ -9318,16 +9258,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" t="s">
         <v>367</v>
-      </c>
-      <c r="B80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C80" t="s">
-        <v>369</v>
-      </c>
-      <c r="D80" t="s">
-        <v>370</v>
       </c>
       <c r="E80" s="13">
         <v>8202.6</v>
@@ -9335,16 +9275,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" t="s">
         <v>371</v>
-      </c>
-      <c r="B81" t="s">
-        <v>372</v>
-      </c>
-      <c r="C81" t="s">
-        <v>373</v>
-      </c>
-      <c r="D81" t="s">
-        <v>374</v>
       </c>
       <c r="E81" s="13">
         <v>30772</v>
@@ -9352,16 +9292,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" t="s">
+        <v>373</v>
+      </c>
+      <c r="C82" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" t="s">
         <v>375</v>
-      </c>
-      <c r="B82" t="s">
-        <v>376</v>
-      </c>
-      <c r="C82" t="s">
-        <v>377</v>
-      </c>
-      <c r="D82" t="s">
-        <v>378</v>
       </c>
       <c r="E82" s="13">
         <v>15386</v>
@@ -9369,16 +9309,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" t="s">
+        <v>377</v>
+      </c>
+      <c r="C83" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" t="s">
         <v>379</v>
-      </c>
-      <c r="B83" t="s">
-        <v>380</v>
-      </c>
-      <c r="C83" t="s">
-        <v>381</v>
-      </c>
-      <c r="D83" t="s">
-        <v>382</v>
       </c>
       <c r="E83" s="13">
         <v>615.44000000000005</v>
@@ -9386,16 +9326,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>380</v>
+      </c>
+      <c r="B84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" t="s">
         <v>383</v>
-      </c>
-      <c r="B84" t="s">
-        <v>384</v>
-      </c>
-      <c r="C84" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" t="s">
-        <v>386</v>
       </c>
       <c r="E84" s="13">
         <v>4615.8</v>
@@ -9403,16 +9343,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" t="s">
         <v>387</v>
-      </c>
-      <c r="B85" t="s">
-        <v>388</v>
-      </c>
-      <c r="C85" t="s">
-        <v>389</v>
-      </c>
-      <c r="D85" t="s">
-        <v>390</v>
       </c>
       <c r="E85" s="13">
         <v>458.64</v>
@@ -9420,16 +9360,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" t="s">
+        <v>390</v>
+      </c>
+      <c r="D86" t="s">
         <v>391</v>
-      </c>
-      <c r="B86" t="s">
-        <v>392</v>
-      </c>
-      <c r="C86" t="s">
-        <v>393</v>
-      </c>
-      <c r="D86" t="s">
-        <v>394</v>
       </c>
       <c r="E86" s="13">
         <v>24598</v>
@@ -9437,16 +9377,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="s">
         <v>395</v>
-      </c>
-      <c r="B87" t="s">
-        <v>396</v>
-      </c>
-      <c r="C87" t="s">
-        <v>397</v>
-      </c>
-      <c r="D87" t="s">
-        <v>398</v>
       </c>
       <c r="E87" s="13">
         <v>92316</v>
@@ -9454,16 +9394,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" t="s">
         <v>399</v>
-      </c>
-      <c r="B88" t="s">
-        <v>400</v>
-      </c>
-      <c r="C88" t="s">
-        <v>401</v>
-      </c>
-      <c r="D88" t="s">
-        <v>402</v>
       </c>
       <c r="E88" s="13">
         <v>46158</v>
@@ -9471,16 +9411,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>400</v>
+      </c>
+      <c r="B89" t="s">
+        <v>401</v>
+      </c>
+      <c r="C89" t="s">
+        <v>402</v>
+      </c>
+      <c r="D89" t="s">
         <v>403</v>
-      </c>
-      <c r="B89" t="s">
-        <v>404</v>
-      </c>
-      <c r="C89" t="s">
-        <v>405</v>
-      </c>
-      <c r="D89" t="s">
-        <v>406</v>
       </c>
       <c r="E89" s="13">
         <v>1852.2</v>
@@ -9488,16 +9428,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>404</v>
+      </c>
+      <c r="B90" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" t="s">
         <v>407</v>
-      </c>
-      <c r="B90" t="s">
-        <v>408</v>
-      </c>
-      <c r="C90" t="s">
-        <v>409</v>
-      </c>
-      <c r="D90" t="s">
-        <v>410</v>
       </c>
       <c r="E90" s="13">
         <v>13818</v>
@@ -9505,16 +9445,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>408</v>
+      </c>
+      <c r="B91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" t="s">
         <v>411</v>
-      </c>
-      <c r="B91" t="s">
-        <v>412</v>
-      </c>
-      <c r="C91" t="s">
-        <v>413</v>
-      </c>
-      <c r="D91" t="s">
-        <v>414</v>
       </c>
       <c r="E91" s="13">
         <v>548.79999999999995</v>
@@ -9522,16 +9462,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" t="s">
+        <v>413</v>
+      </c>
+      <c r="C92" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" t="s">
         <v>415</v>
-      </c>
-      <c r="B92" t="s">
-        <v>416</v>
-      </c>
-      <c r="C92" t="s">
-        <v>417</v>
-      </c>
-      <c r="D92" t="s">
-        <v>418</v>
       </c>
       <c r="E92" s="13">
         <v>30030</v>
@@ -9539,16 +9479,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" t="s">
         <v>419</v>
-      </c>
-      <c r="B93" t="s">
-        <v>420</v>
-      </c>
-      <c r="C93" t="s">
-        <v>421</v>
-      </c>
-      <c r="D93" t="s">
-        <v>422</v>
       </c>
       <c r="E93" s="13">
         <v>1876</v>
@@ -9556,16 +9496,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" t="s">
+        <v>421</v>
+      </c>
+      <c r="C94" t="s">
+        <v>422</v>
+      </c>
+      <c r="D94" t="s">
         <v>423</v>
-      </c>
-      <c r="B94" t="s">
-        <v>424</v>
-      </c>
-      <c r="C94" t="s">
-        <v>425</v>
-      </c>
-      <c r="D94" t="s">
-        <v>426</v>
       </c>
       <c r="E94" s="13">
         <v>16870</v>
@@ -9573,16 +9513,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" t="s">
+        <v>425</v>
+      </c>
+      <c r="C95" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" t="s">
         <v>427</v>
-      </c>
-      <c r="B95" t="s">
-        <v>428</v>
-      </c>
-      <c r="C95" t="s">
-        <v>429</v>
-      </c>
-      <c r="D95" t="s">
-        <v>430</v>
       </c>
       <c r="E95" s="13">
         <v>109.2</v>
@@ -9590,16 +9530,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" t="s">
+        <v>429</v>
+      </c>
+      <c r="C96" t="s">
+        <v>430</v>
+      </c>
+      <c r="D96" t="s">
         <v>431</v>
-      </c>
-      <c r="B96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C96" t="s">
-        <v>433</v>
-      </c>
-      <c r="D96" t="s">
-        <v>434</v>
       </c>
       <c r="E96" s="13">
         <v>5999</v>
@@ -9607,16 +9547,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" t="s">
+        <v>433</v>
+      </c>
+      <c r="C97" t="s">
+        <v>434</v>
+      </c>
+      <c r="D97" t="s">
         <v>435</v>
-      </c>
-      <c r="B97" t="s">
-        <v>436</v>
-      </c>
-      <c r="C97" t="s">
-        <v>437</v>
-      </c>
-      <c r="D97" t="s">
-        <v>438</v>
       </c>
       <c r="E97" s="13">
         <v>375.2</v>
@@ -9624,16 +9564,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" t="s">
         <v>439</v>
-      </c>
-      <c r="B98" t="s">
-        <v>440</v>
-      </c>
-      <c r="C98" t="s">
-        <v>441</v>
-      </c>
-      <c r="D98" t="s">
-        <v>442</v>
       </c>
       <c r="E98" s="13">
         <v>3374</v>
@@ -9641,16 +9581,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>440</v>
+      </c>
+      <c r="B99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" t="s">
+        <v>442</v>
+      </c>
+      <c r="D99" t="s">
         <v>443</v>
-      </c>
-      <c r="B99" t="s">
-        <v>444</v>
-      </c>
-      <c r="C99" t="s">
-        <v>445</v>
-      </c>
-      <c r="D99" t="s">
-        <v>446</v>
       </c>
       <c r="E99" s="13">
         <v>329</v>
@@ -9658,16 +9598,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>444</v>
+      </c>
+      <c r="B100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" t="s">
+        <v>446</v>
+      </c>
+      <c r="D100" t="s">
         <v>447</v>
-      </c>
-      <c r="B100" t="s">
-        <v>448</v>
-      </c>
-      <c r="C100" t="s">
-        <v>449</v>
-      </c>
-      <c r="D100" t="s">
-        <v>450</v>
       </c>
       <c r="E100" s="13">
         <v>17990</v>
@@ -9675,16 +9615,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>448</v>
+      </c>
+      <c r="B101" t="s">
+        <v>449</v>
+      </c>
+      <c r="C101" t="s">
+        <v>450</v>
+      </c>
+      <c r="D101" t="s">
         <v>451</v>
-      </c>
-      <c r="B101" t="s">
-        <v>452</v>
-      </c>
-      <c r="C101" t="s">
-        <v>453</v>
-      </c>
-      <c r="D101" t="s">
-        <v>454</v>
       </c>
       <c r="E101" s="13">
         <v>1127</v>
@@ -9692,16 +9632,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>452</v>
+      </c>
+      <c r="B102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>454</v>
+      </c>
+      <c r="D102" t="s">
         <v>455</v>
-      </c>
-      <c r="B102" t="s">
-        <v>456</v>
-      </c>
-      <c r="C102" t="s">
-        <v>457</v>
-      </c>
-      <c r="D102" t="s">
-        <v>458</v>
       </c>
       <c r="E102" s="13">
         <v>10150</v>
@@ -9709,16 +9649,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>456</v>
+      </c>
+      <c r="B103" t="s">
+        <v>457</v>
+      </c>
+      <c r="C103" t="s">
+        <v>458</v>
+      </c>
+      <c r="D103" t="s">
         <v>459</v>
-      </c>
-      <c r="B103" t="s">
-        <v>460</v>
-      </c>
-      <c r="C103" t="s">
-        <v>461</v>
-      </c>
-      <c r="D103" t="s">
-        <v>462</v>
       </c>
       <c r="E103" s="13">
         <v>2331</v>
@@ -9726,16 +9666,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" t="s">
+        <v>461</v>
+      </c>
+      <c r="C104" t="s">
+        <v>462</v>
+      </c>
+      <c r="D104" t="s">
         <v>463</v>
-      </c>
-      <c r="B104" t="s">
-        <v>464</v>
-      </c>
-      <c r="C104" t="s">
-        <v>465</v>
-      </c>
-      <c r="D104" t="s">
-        <v>466</v>
       </c>
       <c r="E104" s="13">
         <v>13510</v>
@@ -9743,16 +9683,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>464</v>
+      </c>
+      <c r="B105" t="s">
+        <v>465</v>
+      </c>
+      <c r="C105" t="s">
+        <v>466</v>
+      </c>
+      <c r="D105" t="s">
         <v>467</v>
-      </c>
-      <c r="B105" t="s">
-        <v>468</v>
-      </c>
-      <c r="C105" t="s">
-        <v>469</v>
-      </c>
-      <c r="D105" t="s">
-        <v>470</v>
       </c>
       <c r="E105" s="13">
         <v>464.8</v>
@@ -9760,16 +9700,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>468</v>
+      </c>
+      <c r="B106" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" t="s">
         <v>471</v>
-      </c>
-      <c r="B106" t="s">
-        <v>472</v>
-      </c>
-      <c r="C106" t="s">
-        <v>473</v>
-      </c>
-      <c r="D106" t="s">
-        <v>474</v>
       </c>
       <c r="E106" s="13">
         <v>2695</v>
@@ -9777,16 +9717,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>472</v>
+      </c>
+      <c r="B107" t="s">
+        <v>473</v>
+      </c>
+      <c r="C107" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" t="s">
         <v>475</v>
-      </c>
-      <c r="B107" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" t="s">
-        <v>477</v>
-      </c>
-      <c r="D107" t="s">
-        <v>478</v>
       </c>
       <c r="E107" s="13">
         <v>1393</v>
@@ -9794,16 +9734,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>476</v>
+      </c>
+      <c r="B108" t="s">
+        <v>477</v>
+      </c>
+      <c r="C108" t="s">
+        <v>478</v>
+      </c>
+      <c r="D108" t="s">
         <v>479</v>
-      </c>
-      <c r="B108" t="s">
-        <v>480</v>
-      </c>
-      <c r="C108" t="s">
-        <v>481</v>
-      </c>
-      <c r="D108" t="s">
-        <v>482</v>
       </c>
       <c r="E108" s="13">
         <v>8050</v>
@@ -9811,16 +9751,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>480</v>
+      </c>
+      <c r="B109" t="s">
+        <v>481</v>
+      </c>
+      <c r="C109" t="s">
+        <v>482</v>
+      </c>
+      <c r="D109" t="s">
         <v>483</v>
-      </c>
-      <c r="B109" t="s">
-        <v>484</v>
-      </c>
-      <c r="C109" t="s">
-        <v>485</v>
-      </c>
-      <c r="D109" t="s">
-        <v>486</v>
       </c>
       <c r="E109" s="13">
         <v>1820</v>
@@ -9828,16 +9768,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>484</v>
+      </c>
+      <c r="B110" t="s">
+        <v>485</v>
+      </c>
+      <c r="C110" t="s">
+        <v>486</v>
+      </c>
+      <c r="D110" t="s">
         <v>487</v>
-      </c>
-      <c r="B110" t="s">
-        <v>488</v>
-      </c>
-      <c r="C110" t="s">
-        <v>489</v>
-      </c>
-      <c r="D110" t="s">
-        <v>490</v>
       </c>
       <c r="E110" s="13">
         <v>10500</v>
@@ -9845,16 +9785,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>488</v>
+      </c>
+      <c r="B111" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111" t="s">
+        <v>490</v>
+      </c>
+      <c r="D111" t="s">
         <v>491</v>
-      </c>
-      <c r="B111" t="s">
-        <v>492</v>
-      </c>
-      <c r="C111" t="s">
-        <v>493</v>
-      </c>
-      <c r="D111" t="s">
-        <v>494</v>
       </c>
       <c r="E111" s="13">
         <v>364.7</v>
@@ -9862,16 +9802,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B112" t="s">
+        <v>493</v>
+      </c>
+      <c r="C112" t="s">
+        <v>494</v>
+      </c>
+      <c r="D112" t="s">
         <v>495</v>
-      </c>
-      <c r="B112" t="s">
-        <v>496</v>
-      </c>
-      <c r="C112" t="s">
-        <v>497</v>
-      </c>
-      <c r="D112" t="s">
-        <v>498</v>
       </c>
       <c r="E112" s="13">
         <v>2100</v>
@@ -9879,16 +9819,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>496</v>
+      </c>
+      <c r="B113" t="s">
+        <v>497</v>
+      </c>
+      <c r="C113" t="s">
+        <v>498</v>
+      </c>
+      <c r="D113" t="s">
         <v>499</v>
-      </c>
-      <c r="B113" t="s">
-        <v>500</v>
-      </c>
-      <c r="C113" t="s">
-        <v>501</v>
-      </c>
-      <c r="D113" t="s">
-        <v>502</v>
       </c>
       <c r="E113" s="13">
         <v>1092</v>
@@ -9896,16 +9836,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>500</v>
+      </c>
+      <c r="B114" t="s">
+        <v>501</v>
+      </c>
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
+      <c r="D114" t="s">
         <v>503</v>
-      </c>
-      <c r="B114" t="s">
-        <v>504</v>
-      </c>
-      <c r="C114" t="s">
-        <v>505</v>
-      </c>
-      <c r="D114" t="s">
-        <v>506</v>
       </c>
       <c r="E114" s="13">
         <v>6300</v>
@@ -9913,16 +9853,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" t="s">
+        <v>505</v>
+      </c>
+      <c r="C115" t="s">
+        <v>506</v>
+      </c>
+      <c r="D115" t="s">
         <v>507</v>
-      </c>
-      <c r="B115" t="s">
-        <v>508</v>
-      </c>
-      <c r="C115" t="s">
-        <v>509</v>
-      </c>
-      <c r="D115" t="s">
-        <v>510</v>
       </c>
       <c r="E115" s="13">
         <v>605.5</v>
@@ -9930,16 +9870,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>508</v>
+      </c>
+      <c r="B116" t="s">
+        <v>509</v>
+      </c>
+      <c r="C116" t="s">
+        <v>510</v>
+      </c>
+      <c r="D116" t="s">
         <v>511</v>
-      </c>
-      <c r="B116" t="s">
-        <v>512</v>
-      </c>
-      <c r="C116" t="s">
-        <v>513</v>
-      </c>
-      <c r="D116" t="s">
-        <v>514</v>
       </c>
       <c r="E116" s="13">
         <v>3885</v>
@@ -9947,16 +9887,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>512</v>
+      </c>
+      <c r="B117" t="s">
+        <v>513</v>
+      </c>
+      <c r="C117" t="s">
+        <v>514</v>
+      </c>
+      <c r="D117" t="s">
         <v>515</v>
-      </c>
-      <c r="B117" t="s">
-        <v>516</v>
-      </c>
-      <c r="C117" t="s">
-        <v>517</v>
-      </c>
-      <c r="D117" t="s">
-        <v>518</v>
       </c>
       <c r="E117" s="13">
         <v>121.8</v>
@@ -9964,16 +9904,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" t="s">
+        <v>517</v>
+      </c>
+      <c r="C118" t="s">
+        <v>518</v>
+      </c>
+      <c r="D118" t="s">
         <v>519</v>
-      </c>
-      <c r="B118" t="s">
-        <v>520</v>
-      </c>
-      <c r="C118" t="s">
-        <v>521</v>
-      </c>
-      <c r="D118" t="s">
-        <v>522</v>
       </c>
       <c r="E118" s="13">
         <v>777</v>
@@ -9981,16 +9921,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>520</v>
+      </c>
+      <c r="B119" t="s">
+        <v>521</v>
+      </c>
+      <c r="C119" t="s">
+        <v>522</v>
+      </c>
+      <c r="D119" t="s">
         <v>523</v>
-      </c>
-      <c r="B119" t="s">
-        <v>524</v>
-      </c>
-      <c r="C119" t="s">
-        <v>525</v>
-      </c>
-      <c r="D119" t="s">
-        <v>526</v>
       </c>
       <c r="E119" s="13">
         <v>364</v>
@@ -9998,16 +9938,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" t="s">
+        <v>526</v>
+      </c>
+      <c r="D120" t="s">
         <v>527</v>
-      </c>
-      <c r="B120" t="s">
-        <v>528</v>
-      </c>
-      <c r="C120" t="s">
-        <v>529</v>
-      </c>
-      <c r="D120" t="s">
-        <v>530</v>
       </c>
       <c r="E120" s="13">
         <v>2331</v>
@@ -10015,16 +9955,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" t="s">
+        <v>529</v>
+      </c>
+      <c r="C121" t="s">
+        <v>530</v>
+      </c>
+      <c r="D121" t="s">
         <v>531</v>
-      </c>
-      <c r="B121" t="s">
-        <v>532</v>
-      </c>
-      <c r="C121" t="s">
-        <v>533</v>
-      </c>
-      <c r="D121" t="s">
-        <v>534</v>
       </c>
       <c r="E121" s="13">
         <v>301.83999999999997</v>
@@ -10032,16 +9972,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>532</v>
+      </c>
+      <c r="B122" t="s">
+        <v>533</v>
+      </c>
+      <c r="C122" t="s">
+        <v>534</v>
+      </c>
+      <c r="D122" t="s">
         <v>535</v>
-      </c>
-      <c r="B122" t="s">
-        <v>536</v>
-      </c>
-      <c r="C122" t="s">
-        <v>537</v>
-      </c>
-      <c r="D122" t="s">
-        <v>538</v>
       </c>
       <c r="E122" s="13">
         <v>9.9</v>
@@ -10049,16 +9989,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" t="s">
+        <v>537</v>
+      </c>
+      <c r="C123" t="s">
+        <v>538</v>
+      </c>
+      <c r="D123" t="s">
         <v>539</v>
-      </c>
-      <c r="B123" t="s">
-        <v>540</v>
-      </c>
-      <c r="C123" t="s">
-        <v>541</v>
-      </c>
-      <c r="D123" t="s">
-        <v>542</v>
       </c>
       <c r="E123" s="13">
         <v>22.25</v>
@@ -10066,16 +10006,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>707</v>
+      </c>
+      <c r="B124" t="s">
+        <v>708</v>
+      </c>
+      <c r="C124" t="s">
         <v>710</v>
       </c>
-      <c r="B124" t="s">
-        <v>711</v>
-      </c>
-      <c r="C124" t="s">
-        <v>713</v>
-      </c>
       <c r="D124" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E124" s="13">
         <v>260.68</v>
@@ -10083,30 +10023,30 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>714</v>
+        <v>995</v>
       </c>
       <c r="B125" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C125" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D125" t="s">
-        <v>715</v>
+        <v>996</v>
       </c>
       <c r="E125" s="13">
-        <v>2657.6</v>
+        <v>2870.21</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E126" s="13">
         <v>57330</v>
@@ -10114,13 +10054,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E127" s="13">
         <v>28714</v>
@@ -10128,13 +10068,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E128" s="13">
         <v>1107.4000000000001</v>
@@ -10142,13 +10082,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E129" s="13">
         <v>8653.4</v>
@@ -10156,13 +10096,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E130" s="13">
         <v>2881.2</v>
@@ -10170,13 +10110,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B131" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D131" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E131" s="13">
         <v>5200</v>
@@ -10184,13 +10124,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B132" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D132" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E132" s="13">
         <v>1380</v>
@@ -10198,91 +10138,91 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E138" s="13"/>
     </row>
@@ -10306,162 +10246,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\SIEMENS\DesigoCCSpecifier_v5\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4F009-1911-4BFF-9336-09191DB7F5CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604A240-2E72-42A3-8303-47033C3BE298}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1020">
   <si>
     <t>Просмотр графики</t>
   </si>
@@ -2994,9 +2994,6 @@
     <t>Desigo CC Драйвер для интеграции Cerberus PACE</t>
   </si>
   <si>
-    <t>Desigo CC v.5.0</t>
-  </si>
-  <si>
     <t>Компонент продления подписки</t>
   </si>
   <si>
@@ -3021,13 +3018,85 @@
     <t>Количество дополнительных клиентов</t>
   </si>
   <si>
-    <t>Модель данных: 01.07.2021</t>
-  </si>
-  <si>
     <t>P54511-P101-A1-L</t>
   </si>
   <si>
     <t>Лицензия на интеграцию SiPass в DesigoCC V2.8+</t>
+  </si>
+  <si>
+    <t>P55802-Y126-A300</t>
+  </si>
+  <si>
+    <t>CCA-OP-RENO</t>
+  </si>
+  <si>
+    <t>CCA-CMPXL-BA</t>
+  </si>
+  <si>
+    <t>Desigo CC Compact - Building Automation XL</t>
+  </si>
+  <si>
+    <t>Компактный базовый пакет систем автоматизации XL</t>
+  </si>
+  <si>
+    <t>P55802-Y109-A100</t>
+  </si>
+  <si>
+    <t>Desigo CC Компактная лицензия XL только для автоматики</t>
+  </si>
+  <si>
+    <t>P55802-Y109-A500</t>
+  </si>
+  <si>
+    <t>CCA-CMPXL-BA-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desigo CC Компактная лицензия XL только для автоматики Расширение до полной версии </t>
+  </si>
+  <si>
+    <t>P55802-Y109-E100</t>
+  </si>
+  <si>
+    <t>CCA-CMPXL-BA-SSM</t>
+  </si>
+  <si>
+    <t>Desigo CC компактная лицензия XL только для автоматики Миграция SSM</t>
+  </si>
+  <si>
+    <t>P55802-Y157-A413</t>
+  </si>
+  <si>
+    <t>CCA-1000-BA</t>
+  </si>
+  <si>
+    <t>Desigo CC Автоматизация BACnet на 1000 точек</t>
+  </si>
+  <si>
+    <t>P55802-Y157-D413</t>
+  </si>
+  <si>
+    <t>CCA-1000-BA-PSM</t>
+  </si>
+  <si>
+    <t>Desigo CC Автоматизация BACnet на 1000 точек Миграция PSM</t>
+  </si>
+  <si>
+    <t>P55802-Y157-E413</t>
+  </si>
+  <si>
+    <t>CCA-1000-BA-SSM</t>
+  </si>
+  <si>
+    <t>Desigo CC Автоматизация BACnet на 1000 точек Миграция SSM</t>
+  </si>
+  <si>
+    <t>Desigo CC v.5.1</t>
+  </si>
+  <si>
+    <t>Модель данных: 08.10.2021</t>
+  </si>
+  <si>
+    <t>Desigo CC Удаленное оповещение</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3118,6 +3187,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3439,7 +3524,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,12 +3534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -6012,7 +6097,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -6163,24 +6248,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -6193,7 +6278,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,6 +6328,12 @@
       <c r="A7" t="s">
         <v>958</v>
       </c>
+      <c r="B7" t="s">
+        <v>995</v>
+      </c>
+      <c r="C7" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6318,7 +6409,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,16 +6441,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C536C-4D26-4E6D-9015-EE4217B0E0FB}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="75.140625" customWidth="1"/>
     <col min="4" max="4" width="42.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -6442,13 +6533,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>997</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>998</v>
       </c>
       <c r="C4" t="s">
-        <v>729</v>
+        <v>999</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
@@ -6458,7 +6549,7 @@
         <v>715</v>
       </c>
       <c r="G4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
         <v>715</v>
@@ -6466,23 +6557,23 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
         <v>708</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H5" t="s">
         <v>715</v>
@@ -6490,13 +6581,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>732</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>733</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
@@ -6514,25 +6605,49 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>732</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>708</v>
       </c>
       <c r="F7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G7" t="s">
+        <v>714</v>
+      </c>
+      <c r="H7" t="s">
         <v>715</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F8" t="s">
         <v>715</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
+        <v>715</v>
+      </c>
+      <c r="H8" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6545,10 +6660,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AEA670-6461-4AF8-8E36-C9AE338686F8}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,39 +6671,44 @@
     <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="str">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="str">
         <f>feat_sets!A2</f>
         <v>CCA-GW-FSET</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="str">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="str">
         <f>feat_sets!A3</f>
         <v>CCA-CMPT-BA</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="str">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="str">
         <f>feat_sets!A4</f>
+        <v>CCA-CMPXL-BA</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="str">
+        <f>feat_sets!A5</f>
         <v>CCA-CMPT-DMS</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="str">
-        <f>feat_sets!A5</f>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="str">
+        <f>feat_sets!A6</f>
         <v>CCA-CMPT-VM</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="str">
-        <f>feat_sets!A6</f>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="str">
+        <f>feat_sets!A7</f>
         <v>CCA-CMPT-ELEC</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="str">
-        <f>feat_sets!A7</f>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="str">
+        <f>feat_sets!A8</f>
         <v>CCA-STD-FSET</v>
       </c>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>size!A2</f>
         <v>Количество дополнительных клиентов</v>
@@ -6599,17 +6719,17 @@
       <c r="C2" s="2">
         <v>-1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="15">
         <v>2</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -6617,18 +6737,26 @@
       <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="2">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="9">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>size!A3</f>
         <v>Web сессии (мобильный клиент, сторонние приложения)</v>
@@ -6639,10 +6767,10 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
       <c r="F3" s="2">
@@ -6657,20 +6785,26 @@
       <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="2">
         <v>5</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="2">
         <v>5</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="9">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>size!A4</f>
         <v>Автоматизация здания</v>
@@ -6681,38 +6815,44 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15">
         <v>500</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="15">
         <v>2000</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>500</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>300</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <v>500</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>size!A5</f>
         <v>Пожарная безопасность</v>
@@ -6723,38 +6863,44 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
         <v>500</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>500</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
+        <v>500</v>
+      </c>
+      <c r="I5" s="2">
         <v>2000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>100</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <v>500</v>
       </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>size!A6</f>
         <v>Охранная безопасность</v>
@@ -6765,38 +6911,44 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="15">
         <v>-1</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>500</v>
       </c>
-      <c r="H6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>size!A7</f>
         <v>Видеокамеры</v>
@@ -6807,38 +6959,44 @@
       <c r="C7" s="2">
         <v>-1</v>
       </c>
-      <c r="D7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="15">
         <v>-1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>128</v>
       </c>
-      <c r="H7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>size!A8</f>
         <v>Виртуальные мониторы</v>
@@ -6849,38 +7007,44 @@
       <c r="C8" s="2">
         <v>-1</v>
       </c>
-      <c r="D8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="15">
         <v>-1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>size!A9</f>
         <v>Двери</v>
@@ -6891,38 +7055,44 @@
       <c r="C9" s="2">
         <v>-1</v>
       </c>
-      <c r="D9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15">
         <v>-1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>128</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>16</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>16</v>
       </c>
-      <c r="J9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>size!A10</f>
         <v>Сторонние системы (каждое свойство)</v>
@@ -6933,38 +7103,44 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="15">
         <v>500</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <v>500</v>
       </c>
       <c r="F10" s="2">
         <v>500</v>
       </c>
       <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
         <v>500</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+      <c r="J10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>100</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
         <v>500</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>size!A11</f>
         <v>Электросчетчики (Sentron, 9410, Sicam)</v>
@@ -6975,17 +7151,17 @@
       <c r="C11" s="2">
         <v>-1</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
         <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2">
         <v>-1</v>
@@ -6993,20 +7169,26 @@
       <c r="I11" s="2">
         <v>-1</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="J11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>30</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>size!A12</f>
         <v>Точки систем электроснабжения</v>
@@ -7017,17 +7199,17 @@
       <c r="C12" s="9">
         <v>-1</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
         <v>500</v>
       </c>
       <c r="F12" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>-1</v>
+        <v>500</v>
       </c>
       <c r="H12" s="9">
         <v>-1</v>
@@ -7036,19 +7218,25 @@
         <v>-1</v>
       </c>
       <c r="J12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="9">
         <v>500</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>size!A13</f>
         <v>Валидация</v>
@@ -7059,10 +7247,10 @@
       <c r="C13" s="2">
         <v>-1</v>
       </c>
-      <c r="D13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="15">
         <v>-1</v>
       </c>
       <c r="F13" s="2">
@@ -7072,25 +7260,31 @@
         <v>-1</v>
       </c>
       <c r="H13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="2">
         <v>500</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>2000</v>
       </c>
-      <c r="J13" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>size!A14</f>
         <v>Группы архивирования</v>
@@ -7101,17 +7295,17 @@
       <c r="C14" s="2">
         <v>-1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="15">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="15">
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -7119,20 +7313,26 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="2">
         <v>4</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="2">
         <v>4</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="9">
         <v>4</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="9">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>size!A15</f>
         <v>Интеграция через SORIS (Токены)</v>
@@ -7143,10 +7343,10 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="F15" s="2">
@@ -7161,74 +7361,86 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
         <v>10</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>989</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>990</v>
       </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>991</v>
-      </c>
       <c r="B17" s="14">
         <v>0</v>
       </c>
       <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="14">
@@ -7255,15 +7467,22 @@
       <c r="M17" s="14">
         <v>0</v>
       </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7271,50 +7490,55 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4270B64-68A0-450B-B4CA-F2EF7E917DD4}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>feat_sets!A2</f>
         <v>CCA-GW-FSET</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="15" t="str">
         <f>feat_sets!A3</f>
         <v>CCA-CMPT-BA</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="16" t="str">
         <f>feat_sets!A4</f>
-        <v>CCA-CMPT-DMS</v>
+        <v>CCA-CMPXL-BA</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>feat_sets!A5</f>
+        <v>CCA-CMPT-DMS</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>feat_sets!A6</f>
         <v>CCA-CMPT-VM</v>
       </c>
-      <c r="F1" s="9" t="str">
-        <f>feat_sets!A6</f>
+      <c r="G1" s="9" t="str">
+        <f>feat_sets!A7</f>
         <v>CCA-CMPT-ELEC</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f>feat_sets!A7</f>
+      <c r="H1" s="2" t="str">
+        <f>feat_sets!A8</f>
         <v>CCA-STD-FSET</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>options!A2</f>
         <v>Обработка и журналирование событий</v>
@@ -7322,23 +7546,26 @@
       <c r="B2" s="2">
         <v>-1</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>options!A3</f>
         <v>Просмотр графики</v>
@@ -7346,23 +7573,26 @@
       <c r="B3" s="2">
         <v>-1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>options!A4</f>
         <v>Расписания, реакции по времени, макросы</v>
@@ -7370,23 +7600,26 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
         <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>options!A5</f>
         <v>Просмотр трендов</v>
@@ -7394,24 +7627,27 @@
       <c r="B5" s="2">
         <v>-1</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-1</v>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>options!A6</f>
         <v>Долгосрочные хранилища</v>
@@ -7419,23 +7655,26 @@
       <c r="B6" s="2">
         <v>-1</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-1</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>options!A7</f>
         <v>Удаленные уведомления (СМС, E-mail, пейджер)</v>
@@ -7443,23 +7682,26 @@
       <c r="B7" s="2">
         <v>-1</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>options!A8</f>
         <v>Расширенные уведомления (RenoPlus)</v>
@@ -7467,10 +7709,10 @@
       <c r="B8" s="11">
         <v>-1</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
         <v>0</v>
       </c>
       <c r="E8" s="11">
@@ -7482,8 +7724,11 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>options!A9</f>
         <v>Отчеты</v>
@@ -7491,23 +7736,26 @@
       <c r="B9" s="2">
         <v>-1</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>options!A10</f>
         <v>Просмотр логов</v>
@@ -7515,23 +7763,26 @@
       <c r="B10" s="2">
         <v>-1</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1</v>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>options!A11</f>
         <v>Задачи оператора</v>
@@ -7539,10 +7790,10 @@
       <c r="B11" s="11">
         <v>-1</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
       <c r="E11" s="11">
@@ -7554,8 +7805,11 @@
       <c r="G11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>options!A12</f>
         <v>Процедуры обработки событий</v>
@@ -7563,23 +7817,26 @@
       <c r="B12" s="2">
         <v>-1</v>
       </c>
-      <c r="C12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="C12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>-1</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>options!A13</f>
         <v>Расширенные отчеты</v>
@@ -7587,23 +7844,26 @@
       <c r="B13" s="2">
         <v>-1</v>
       </c>
-      <c r="C13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-1</v>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>options!A14</f>
         <v>Редактор графики</v>
@@ -7611,23 +7871,26 @@
       <c r="B14" s="2">
         <v>-1</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>options!A15</f>
         <v>Распределенные системы</v>
@@ -7635,23 +7898,26 @@
       <c r="B15" s="2">
         <v>-1</v>
       </c>
-      <c r="C15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="16">
         <v>-1</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>options!A16</f>
         <v>Логика (реакции по событиям/COV, скрипты JavaScript)</v>
@@ -7659,23 +7925,26 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
         <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>options!A17</f>
         <v>Отчеты валидация (Pharma)</v>
@@ -7683,23 +7952,26 @@
       <c r="B17" s="2">
         <v>-1</v>
       </c>
-      <c r="C17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="16">
         <v>-1</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>options!A18</f>
         <v>OPC DA сервер</v>
@@ -7707,23 +7979,26 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="16">
         <v>-1</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
       </c>
-      <c r="F18" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>options!A19</f>
         <v>BACnet сервер</v>
@@ -7731,10 +8006,10 @@
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="11">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="16">
         <v>-1</v>
       </c>
       <c r="E19" s="11">
@@ -7744,20 +8019,23 @@
         <v>-1</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="16">
         <v>-1</v>
       </c>
       <c r="E20" s="14">
@@ -7767,80 +8045,92 @@
         <v>-1</v>
       </c>
       <c r="G20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>options!A21</f>
         <v>Поддержка PACE</v>
       </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>options!A22</f>
         <v>Поддержка IEC 61850</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7902,10 +8192,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23746BB9-1DD0-4EAB-8A33-BFEF932BE348}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7948,7 +8238,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="13">
-        <v>770</v>
+        <v>808.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7965,7 +8255,7 @@
         <v>72</v>
       </c>
       <c r="E3" s="13">
-        <v>2947</v>
+        <v>3094.35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7982,7 +8272,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="13">
-        <v>60.69</v>
+        <v>63.724499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7999,7 +8289,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="13">
-        <v>154</v>
+        <v>161.69999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8016,7 +8306,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="13">
-        <v>587.29999999999995</v>
+        <v>616.66499999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8033,7 +8323,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="13">
-        <v>12.04</v>
+        <v>12.641999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8050,7 +8340,7 @@
         <v>92</v>
       </c>
       <c r="E8" s="13">
-        <v>462</v>
+        <v>485.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8067,7 +8357,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="13">
-        <v>1764</v>
+        <v>1852.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8084,7 +8374,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="13">
-        <v>36.33</v>
+        <v>38.146500000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8101,7 +8391,7 @@
         <v>103</v>
       </c>
       <c r="E11" s="13">
-        <v>2625</v>
+        <v>2756.25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8118,7 +8408,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="13">
-        <v>12250</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8135,7 +8425,7 @@
         <v>111</v>
       </c>
       <c r="E13" s="13">
-        <v>525</v>
+        <v>551.25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8152,7 +8442,7 @@
         <v>115</v>
       </c>
       <c r="E14" s="13">
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8169,7 +8459,7 @@
         <v>118</v>
       </c>
       <c r="E15" s="13">
-        <v>2969.4</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8186,7 +8476,7 @@
         <v>122</v>
       </c>
       <c r="E16" s="13">
-        <v>593.88</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8203,7 +8493,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="13">
-        <v>1783.6</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8220,7 +8510,7 @@
         <v>129</v>
       </c>
       <c r="E18" s="13">
-        <v>3596.6</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8237,7 +8527,7 @@
         <v>133</v>
       </c>
       <c r="E19" s="13">
-        <v>12838</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8254,7 +8544,7 @@
         <v>137</v>
       </c>
       <c r="E20" s="13">
-        <v>2156</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8271,7 +8561,7 @@
         <v>140</v>
       </c>
       <c r="E21" s="13">
-        <v>5742.8</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8288,7 +8578,7 @@
         <v>144</v>
       </c>
       <c r="E22" s="13">
-        <v>1146.5999999999999</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8305,7 +8595,7 @@
         <v>148</v>
       </c>
       <c r="E23" s="13">
-        <v>3439.8</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8322,7 +8612,7 @@
         <v>152</v>
       </c>
       <c r="E24" s="13">
-        <v>1891.4</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8339,7 +8629,7 @@
         <v>156</v>
       </c>
       <c r="E25" s="13">
-        <v>377.3</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8356,7 +8646,7 @@
         <v>160</v>
       </c>
       <c r="E26" s="13">
-        <v>1146.5999999999999</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8373,7 +8663,7 @@
         <v>164</v>
       </c>
       <c r="E27" s="13">
-        <v>20188</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8390,7 +8680,7 @@
         <v>168</v>
       </c>
       <c r="E28" s="13">
-        <v>4037.6</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8407,7 +8697,7 @@
         <v>172</v>
       </c>
       <c r="E29" s="13">
-        <v>12054</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8424,7 +8714,7 @@
         <v>175</v>
       </c>
       <c r="E30" s="13">
-        <v>6154.4</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8441,7 +8731,7 @@
         <v>179</v>
       </c>
       <c r="E31" s="13">
-        <v>9996</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8458,7 +8748,7 @@
         <v>183</v>
       </c>
       <c r="E32" s="13">
-        <v>781.06</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8475,7 +8765,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="13">
-        <v>3204.6</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8492,7 +8782,7 @@
         <v>191</v>
       </c>
       <c r="E34" s="13">
-        <v>23128</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8509,7 +8799,7 @@
         <v>195</v>
       </c>
       <c r="E35" s="13">
-        <v>155.82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8526,7 +8816,7 @@
         <v>199</v>
       </c>
       <c r="E36" s="13">
-        <v>639.94000000000005</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8543,7 +8833,7 @@
         <v>203</v>
       </c>
       <c r="E37" s="13">
-        <v>4635.3999999999996</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8560,7 +8850,7 @@
         <v>207</v>
       </c>
       <c r="E38" s="13">
-        <v>468.44</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8577,7 +8867,7 @@
         <v>211</v>
       </c>
       <c r="E39" s="13">
-        <v>1920.8</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8594,7 +8884,7 @@
         <v>215</v>
       </c>
       <c r="E40" s="13">
-        <v>13916</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8611,7 +8901,7 @@
         <v>217</v>
       </c>
       <c r="E41" s="13">
-        <v>3596.6</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8628,7 +8918,7 @@
         <v>221</v>
       </c>
       <c r="E42" s="13">
-        <v>493.11</v>
+        <v>315.625</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8660,7 +8950,7 @@
         <v>225</v>
       </c>
       <c r="E44" s="13">
-        <v>2254</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,7 +8982,7 @@
         <v>231</v>
       </c>
       <c r="E46" s="13">
-        <v>1029</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8709,7 +8999,7 @@
         <v>235</v>
       </c>
       <c r="E47" s="13">
-        <v>5938.8</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8726,7 +9016,7 @@
         <v>239</v>
       </c>
       <c r="E48" s="13">
-        <v>204.82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,7 +9033,7 @@
         <v>243</v>
       </c>
       <c r="E49" s="13">
-        <v>1185.8</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,7 +9050,7 @@
         <v>247</v>
       </c>
       <c r="E50" s="13">
-        <v>615.44000000000005</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8777,7 +9067,7 @@
         <v>251</v>
       </c>
       <c r="E51" s="13">
-        <v>3567.2</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8794,7 +9084,7 @@
         <v>255</v>
       </c>
       <c r="E52" s="13">
-        <v>1029</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,7 +9101,7 @@
         <v>259</v>
       </c>
       <c r="E53" s="13">
-        <v>19796</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,7 +9118,7 @@
         <v>263</v>
       </c>
       <c r="E54" s="13">
-        <v>49490</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8845,7 +9135,7 @@
         <v>267</v>
       </c>
       <c r="E55" s="13">
-        <v>29694</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,7 +9152,7 @@
         <v>271</v>
       </c>
       <c r="E56" s="13">
-        <v>2969.4</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8879,7 +9169,7 @@
         <v>275</v>
       </c>
       <c r="E57" s="13">
-        <v>14896</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8896,7 +9186,7 @@
         <v>279</v>
       </c>
       <c r="E58" s="13">
-        <v>204.82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8913,7 +9203,7 @@
         <v>283</v>
       </c>
       <c r="E59" s="13">
-        <v>3959.2</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8930,7 +9220,7 @@
         <v>287</v>
       </c>
       <c r="E60" s="13">
-        <v>9898</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8947,7 +9237,7 @@
         <v>291</v>
       </c>
       <c r="E61" s="13">
-        <v>5938.8</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8964,7 +9254,7 @@
         <v>295</v>
       </c>
       <c r="E62" s="13">
-        <v>593.88</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8981,7 +9271,7 @@
         <v>299</v>
       </c>
       <c r="E63" s="13">
-        <v>2969.4</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8998,7 +9288,7 @@
         <v>303</v>
       </c>
       <c r="E64" s="13">
-        <v>615.44000000000005</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -9015,7 +9305,7 @@
         <v>307</v>
       </c>
       <c r="E65" s="13">
-        <v>11858</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,7 +9322,7 @@
         <v>311</v>
       </c>
       <c r="E66" s="13">
-        <v>29694</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -9049,7 +9339,7 @@
         <v>315</v>
       </c>
       <c r="E67" s="13">
-        <v>17836</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -9066,7 +9356,7 @@
         <v>319</v>
       </c>
       <c r="E68" s="13">
-        <v>1783.6</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -9083,7 +9373,7 @@
         <v>323</v>
       </c>
       <c r="E69" s="13">
-        <v>8908.2000000000007</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -9100,7 +9390,7 @@
         <v>327</v>
       </c>
       <c r="E70" s="13">
-        <v>3077.2</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -9117,7 +9407,7 @@
         <v>331</v>
       </c>
       <c r="E71" s="13">
-        <v>615.44000000000005</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -9134,7 +9424,7 @@
         <v>335</v>
       </c>
       <c r="E72" s="13">
-        <v>1852.2</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -9151,7 +9441,7 @@
         <v>339</v>
       </c>
       <c r="E73" s="13">
-        <v>751.66</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -9168,7 +9458,7 @@
         <v>343</v>
       </c>
       <c r="E74" s="13">
-        <v>41062</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,7 +9475,7 @@
         <v>347</v>
       </c>
       <c r="E75" s="13">
-        <v>153860</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -9202,7 +9492,7 @@
         <v>351</v>
       </c>
       <c r="E76" s="13">
-        <v>76930</v>
+        <v>79900</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -9219,7 +9509,7 @@
         <v>355</v>
       </c>
       <c r="E77" s="13">
-        <v>3077.2</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -9236,7 +9526,7 @@
         <v>359</v>
       </c>
       <c r="E78" s="13">
-        <v>23128</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -9253,7 +9543,7 @@
         <v>363</v>
       </c>
       <c r="E79" s="13">
-        <v>149.94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -9270,7 +9560,7 @@
         <v>367</v>
       </c>
       <c r="E80" s="13">
-        <v>8202.6</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -9287,7 +9577,7 @@
         <v>371</v>
       </c>
       <c r="E81" s="13">
-        <v>30772</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9304,7 +9594,7 @@
         <v>375</v>
       </c>
       <c r="E82" s="13">
-        <v>15386</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9321,7 +9611,7 @@
         <v>379</v>
       </c>
       <c r="E83" s="13">
-        <v>615.44000000000005</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9338,7 +9628,7 @@
         <v>383</v>
       </c>
       <c r="E84" s="13">
-        <v>4615.8</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9355,7 +9645,7 @@
         <v>387</v>
       </c>
       <c r="E85" s="13">
-        <v>458.64</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9372,7 +9662,7 @@
         <v>391</v>
       </c>
       <c r="E86" s="13">
-        <v>24598</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,7 +9679,7 @@
         <v>395</v>
       </c>
       <c r="E87" s="13">
-        <v>92316</v>
+        <v>95900</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9406,7 +9696,7 @@
         <v>399</v>
       </c>
       <c r="E88" s="13">
-        <v>46158</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9423,7 +9713,7 @@
         <v>403</v>
       </c>
       <c r="E89" s="13">
-        <v>1852.2</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9440,7 +9730,7 @@
         <v>407</v>
       </c>
       <c r="E90" s="13">
-        <v>13818</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9457,7 +9747,7 @@
         <v>411</v>
       </c>
       <c r="E91" s="13">
-        <v>548.79999999999995</v>
+        <v>576.24</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9474,7 +9764,7 @@
         <v>415</v>
       </c>
       <c r="E92" s="13">
-        <v>30030</v>
+        <v>31531.5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9491,7 +9781,7 @@
         <v>419</v>
       </c>
       <c r="E93" s="13">
-        <v>1876</v>
+        <v>1969.8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9508,7 +9798,7 @@
         <v>423</v>
       </c>
       <c r="E94" s="13">
-        <v>16870</v>
+        <v>17713.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9525,7 +9815,7 @@
         <v>427</v>
       </c>
       <c r="E95" s="13">
-        <v>109.2</v>
+        <v>114.66</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,7 +9832,7 @@
         <v>431</v>
       </c>
       <c r="E96" s="13">
-        <v>5999</v>
+        <v>6298.95</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9559,7 +9849,7 @@
         <v>435</v>
       </c>
       <c r="E97" s="13">
-        <v>375.2</v>
+        <v>393.96</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9576,7 +9866,7 @@
         <v>439</v>
       </c>
       <c r="E98" s="13">
-        <v>3374</v>
+        <v>3542.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9593,7 +9883,7 @@
         <v>443</v>
       </c>
       <c r="E99" s="13">
-        <v>329</v>
+        <v>345.45</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9610,7 +9900,7 @@
         <v>447</v>
       </c>
       <c r="E100" s="13">
-        <v>17990</v>
+        <v>18889.5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9627,7 +9917,7 @@
         <v>451</v>
       </c>
       <c r="E101" s="13">
-        <v>1127</v>
+        <v>1183.3499999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9644,7 +9934,7 @@
         <v>455</v>
       </c>
       <c r="E102" s="13">
-        <v>10150</v>
+        <v>10657.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9661,7 +9951,7 @@
         <v>459</v>
       </c>
       <c r="E103" s="13">
-        <v>2331</v>
+        <v>2447.5500000000002</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,7 +9968,7 @@
         <v>463</v>
       </c>
       <c r="E104" s="13">
-        <v>13510</v>
+        <v>14185.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9695,7 +9985,7 @@
         <v>467</v>
       </c>
       <c r="E105" s="13">
-        <v>464.8</v>
+        <v>488.04</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9712,7 +10002,7 @@
         <v>471</v>
       </c>
       <c r="E106" s="13">
-        <v>2695</v>
+        <v>2829.75</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9729,7 +10019,7 @@
         <v>475</v>
       </c>
       <c r="E107" s="13">
-        <v>1393</v>
+        <v>1462.65</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9746,7 +10036,7 @@
         <v>479</v>
       </c>
       <c r="E108" s="13">
-        <v>8050</v>
+        <v>8452.5</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9763,7 +10053,7 @@
         <v>483</v>
       </c>
       <c r="E109" s="13">
-        <v>1820</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,7 +10070,7 @@
         <v>487</v>
       </c>
       <c r="E110" s="13">
-        <v>10500</v>
+        <v>11025</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9797,7 +10087,7 @@
         <v>491</v>
       </c>
       <c r="E111" s="13">
-        <v>364.7</v>
+        <v>382.935</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9814,7 +10104,7 @@
         <v>495</v>
       </c>
       <c r="E112" s="13">
-        <v>2100</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9831,7 +10121,7 @@
         <v>499</v>
       </c>
       <c r="E113" s="13">
-        <v>1092</v>
+        <v>1146.5999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9848,7 +10138,7 @@
         <v>503</v>
       </c>
       <c r="E114" s="13">
-        <v>6300</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9865,7 +10155,7 @@
         <v>507</v>
       </c>
       <c r="E115" s="13">
-        <v>605.5</v>
+        <v>635.77499999999998</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9882,7 +10172,7 @@
         <v>511</v>
       </c>
       <c r="E116" s="13">
-        <v>3885</v>
+        <v>4079.25</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9899,7 +10189,7 @@
         <v>515</v>
       </c>
       <c r="E117" s="13">
-        <v>121.8</v>
+        <v>127.89</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9916,7 +10206,7 @@
         <v>519</v>
       </c>
       <c r="E118" s="13">
-        <v>777</v>
+        <v>815.85</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9933,7 +10223,7 @@
         <v>523</v>
       </c>
       <c r="E119" s="13">
-        <v>364</v>
+        <v>382.2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9950,7 +10240,7 @@
         <v>527</v>
       </c>
       <c r="E120" s="13">
-        <v>2331</v>
+        <v>2447.5500000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9967,7 +10257,7 @@
         <v>531</v>
       </c>
       <c r="E121" s="13">
-        <v>301.83999999999997</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9984,7 +10274,7 @@
         <v>535</v>
       </c>
       <c r="E122" s="13">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,7 +10291,7 @@
         <v>539</v>
       </c>
       <c r="E123" s="13">
-        <v>22.25</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -10018,12 +10308,12 @@
         <v>709</v>
       </c>
       <c r="E124" s="13">
-        <v>260.68</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B125" t="s">
         <v>706</v>
@@ -10032,11 +10322,9 @@
         <v>711</v>
       </c>
       <c r="D125" t="s">
-        <v>996</v>
-      </c>
-      <c r="E125" s="13">
-        <v>2870.21</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
@@ -10049,7 +10337,7 @@
         <v>961</v>
       </c>
       <c r="E126" s="13">
-        <v>57330</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -10063,7 +10351,7 @@
         <v>964</v>
       </c>
       <c r="E127" s="13">
-        <v>28714</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -10077,7 +10365,7 @@
         <v>740</v>
       </c>
       <c r="E128" s="13">
-        <v>1107.4000000000001</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -10091,7 +10379,7 @@
         <v>741</v>
       </c>
       <c r="E129" s="13">
-        <v>8653.4</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -10105,7 +10393,7 @@
         <v>743</v>
       </c>
       <c r="E130" s="13">
-        <v>2881.2</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -10119,7 +10407,7 @@
         <v>777</v>
       </c>
       <c r="E131" s="13">
-        <v>5200</v>
+        <v>5314.4</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -10133,7 +10421,7 @@
         <v>779</v>
       </c>
       <c r="E132" s="13">
-        <v>1380</v>
+        <v>1410.36</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -10225,6 +10513,118 @@
         <v>984</v>
       </c>
       <c r="E138" s="13"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E139" s="20">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E140" s="20">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E141" s="20">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C142" s="18"/>
+      <c r="D142" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E142" s="20">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E144" s="20">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E145" s="20">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\SIEMENS\DesigoCCSpecifier_v5\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604A240-2E72-42A3-8303-47033C3BE298}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16964690-DF6E-4DCE-BC85-63B3CE62BA75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -2994,12 +2994,6 @@
     <t>Desigo CC Драйвер для интеграции Cerberus PACE</t>
   </si>
   <si>
-    <t>Компонент продления подписки</t>
-  </si>
-  <si>
-    <t>Компонент возобновления подписки</t>
-  </si>
-  <si>
     <t>SUR</t>
   </si>
   <si>
@@ -3093,10 +3087,16 @@
     <t>Desigo CC v.5.1</t>
   </si>
   <si>
-    <t>Модель данных: 08.10.2021</t>
-  </si>
-  <si>
     <t>Desigo CC Удаленное оповещение</t>
+  </si>
+  <si>
+    <t>Модель данных: 29.12.2021</t>
+  </si>
+  <si>
+    <t>Компонент продления подписки (SUR)</t>
+  </si>
+  <si>
+    <t>Компонент возобновления подписки (SUS)</t>
   </si>
 </sst>
 </file>
@@ -3523,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8D57EA-4FE7-4FCD-BE96-8A7E978C7663}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,12 +3534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -6073,7 +6073,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -6248,24 +6248,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B16" t="s">
         <v>985</v>
       </c>
-      <c r="B16" t="s">
-        <v>987</v>
-      </c>
       <c r="C16" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B17" t="s">
         <v>986</v>
       </c>
-      <c r="B17" t="s">
-        <v>988</v>
-      </c>
       <c r="C17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -6329,10 +6329,10 @@
         <v>958</v>
       </c>
       <c r="B7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6409,7 +6409,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,13 +6533,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C4" t="s">
         <v>997</v>
-      </c>
-      <c r="B4" t="s">
-        <v>998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>999</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
@@ -6662,7 +6662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AEA670-6461-4AF8-8E36-C9AE338686F8}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B125" t="s">
         <v>706</v>
@@ -10322,7 +10322,7 @@
         <v>711</v>
       </c>
       <c r="D125" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E125" s="13"/>
     </row>
@@ -10516,14 +10516,14 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E139" s="20">
         <v>4220</v>
@@ -10531,14 +10531,14 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="19" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E140" s="20">
         <v>20300</v>
@@ -10546,14 +10546,14 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="19" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E141" s="20">
         <v>2530</v>
@@ -10561,14 +10561,14 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E142" s="20">
         <v>5320</v>
@@ -10576,14 +10576,14 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="19" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E143" s="20">
         <v>1070</v>
@@ -10591,14 +10591,14 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="19" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E144" s="20">
         <v>3200</v>
@@ -10606,14 +10606,14 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E145" s="20">
         <v>2990</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\SIEMENS\DesigoCCSpecifier_v5\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16964690-DF6E-4DCE-BC85-63B3CE62BA75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9C09C-AB9D-4FA9-9FD7-D78635BBE82B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
   </bookViews>
@@ -2160,15 +2160,6 @@
     <t>AAC-16-GMS</t>
   </si>
   <si>
-    <t>S55802-Y148</t>
-  </si>
-  <si>
-    <t>CMD.04</t>
-  </si>
-  <si>
-    <t>ЭЛЕКТРОННЫЙ КЛЮЧ  LMS MICRO</t>
-  </si>
-  <si>
     <t>CMD.04 LMS Micro Dongle</t>
   </si>
   <si>
@@ -3090,13 +3081,22 @@
     <t>Desigo CC Удаленное оповещение</t>
   </si>
   <si>
-    <t>Модель данных: 29.12.2021</t>
-  </si>
-  <si>
     <t>Компонент продления подписки (SUR)</t>
   </si>
   <si>
     <t>Компонент возобновления подписки (SUS)</t>
+  </si>
+  <si>
+    <t>Модель данных: 26.01.2022</t>
+  </si>
+  <si>
+    <t>CMD.06</t>
+  </si>
+  <si>
+    <t>S55802-Y185</t>
+  </si>
+  <si>
+    <t>Электронный ключ LMS Micro</t>
   </si>
 </sst>
 </file>
@@ -3524,7 +3524,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,12 +3534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B14" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B15" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B16" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B17" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B24" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B25" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B26" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4013,10 +4013,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B33" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B34" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B35" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B38" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B40" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B41" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B42" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B43" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B44" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B45" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C45">
         <v>40</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B49" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B56" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B58" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B59" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B61" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B64" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B66" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B67" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B68" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B69" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B70" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B71" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B72" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B73" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4587,10 +4587,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B74" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B75" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B76" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B78" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B79" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B81" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B82" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4727,10 +4727,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B84" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B85" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B86" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B91" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B92" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B93" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C93">
         <v>15</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B94" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C94">
         <v>15</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B97" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C97">
         <v>20</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B98" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C98">
         <v>20</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B99" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C99">
         <v>20</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B102" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B103" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C103">
         <v>15</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B104" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B108" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C108">
         <v>40</v>
@@ -5077,10 +5077,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B109" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B110" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B111" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5119,10 +5119,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B112" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5133,10 +5133,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B113" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B117" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5203,10 +5203,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B118" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B119" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B120" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B8" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B11" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B12" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B13" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B14" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -6204,13 +6204,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6248,24 +6248,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C16" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C17" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -6326,24 +6326,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C7" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B8" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6358,7 +6358,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6394,7 +6394,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,23 +6404,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6472,13 +6472,13 @@
         <v>705</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6489,22 +6489,22 @@
         <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6515,44 +6515,44 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6563,20 +6563,20 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6587,44 +6587,44 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6635,20 +6635,20 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="F8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -6663,7 +6663,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
@@ -8142,7 +8142,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8154,35 +8154,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B1" t="s">
         <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
         <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>1017</v>
       </c>
       <c r="C3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -8194,8 +8194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23746BB9-1DD0-4EAB-8A33-BFEF932BE348}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10296,16 +10296,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C124" t="s">
         <v>707</v>
       </c>
-      <c r="B124" t="s">
-        <v>708</v>
-      </c>
-      <c r="C124" t="s">
-        <v>710</v>
-      </c>
       <c r="D124" t="s">
-        <v>709</v>
+        <v>1019</v>
       </c>
       <c r="E124" s="13">
         <v>271</v>
@@ -10313,28 +10313,28 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B125" t="s">
         <v>706</v>
       </c>
       <c r="C125" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D125" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E126" s="13">
         <v>59600</v>
@@ -10342,13 +10342,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E127" s="13">
         <v>29800</v>
@@ -10356,13 +10356,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>737</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>740</v>
       </c>
       <c r="E128" s="13">
         <v>1150</v>
@@ -10370,13 +10370,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>741</v>
       </c>
       <c r="E129" s="13">
         <v>8990</v>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E130" s="13">
         <v>2990</v>
@@ -10398,13 +10398,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B131" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D131" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E131" s="13">
         <v>5314.4</v>
@@ -10412,13 +10412,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B132" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D132" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E132" s="13">
         <v>1410.36</v>
@@ -10426,104 +10426,104 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="19" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E139" s="20">
         <v>4220</v>
@@ -10531,14 +10531,14 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="19" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E140" s="20">
         <v>20300</v>
@@ -10546,14 +10546,14 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="19" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E141" s="20">
         <v>2530</v>
@@ -10561,14 +10561,14 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="19" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E142" s="20">
         <v>5320</v>
@@ -10576,14 +10576,14 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="19" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E143" s="20">
         <v>1070</v>
@@ -10591,14 +10591,14 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="19" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E144" s="20">
         <v>3200</v>
@@ -10606,14 +10606,14 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="19" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E145" s="20">
         <v>2990</v>
@@ -10646,162 +10646,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
